--- a/Team-Data/2011-12/3-6-2011-12.xlsx
+++ b/Team-Data/2011-12/3-6-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.605</v>
+        <v>0.595</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
@@ -687,7 +754,7 @@
         <v>81.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L2" t="n">
         <v>7.2</v>
@@ -696,16 +763,16 @@
         <v>19.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O2" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P2" t="n">
         <v>20.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R2" t="n">
         <v>10.4</v>
@@ -714,7 +781,7 @@
         <v>31.6</v>
       </c>
       <c r="T2" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U2" t="n">
         <v>21.6</v>
@@ -732,40 +799,40 @@
         <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>2</v>
       </c>
       <c r="AI2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK2" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -786,16 +853,16 @@
         <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
@@ -810,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>22</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
         <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.541</v>
+        <v>0.528</v>
       </c>
       <c r="H3" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I3" t="n">
         <v>34.9</v>
       </c>
       <c r="J3" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
         <v>15.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O3" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="S3" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T3" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="U3" t="n">
         <v>22.8</v>
@@ -905,10 +972,10 @@
         <v>15.5</v>
       </c>
       <c r="W3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.9</v>
@@ -917,28 +984,28 @@
         <v>20.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
       </c>
       <c r="AG3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH3" t="n">
         <v>14</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -959,10 +1026,10 @@
         <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>11</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -980,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
@@ -989,13 +1056,13 @@
         <v>8</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -1030,85 +1097,85 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.139</v>
+        <v>0.114</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
       </c>
       <c r="I4" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="J4" t="n">
         <v>80.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.415</v>
+        <v>0.413</v>
       </c>
       <c r="L4" t="n">
         <v>4.2</v>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.301</v>
+        <v>0.299</v>
       </c>
       <c r="O4" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P4" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q4" t="n">
         <v>0.737</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T4" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="U4" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y4" t="n">
         <v>5.8</v>
       </c>
       <c r="Z4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AA4" t="n">
         <v>19.8</v>
       </c>
-      <c r="AA4" t="n">
-        <v>19.9</v>
-      </c>
       <c r="AB4" t="n">
-        <v>87.09999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.6</v>
+        <v>-14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
         <v>26</v>
@@ -1138,19 +1205,19 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
         <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>22</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1159,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
@@ -1171,13 +1238,13 @@
         <v>3</v>
       </c>
       <c r="AY4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
         <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1484,13 +1551,13 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>25</v>
@@ -1508,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>29</v>
@@ -1529,7 +1596,7 @@
         <v>24</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
@@ -1541,10 +1608,10 @@
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
         <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>0.575</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J7" t="n">
         <v>81.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L7" t="n">
         <v>7.3</v>
       </c>
       <c r="M7" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O7" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="P7" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.751</v>
+        <v>0.746</v>
       </c>
       <c r="R7" t="n">
         <v>10.7</v>
       </c>
       <c r="S7" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="V7" t="n">
         <v>14.6</v>
@@ -1639,7 +1706,7 @@
         <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z7" t="n">
         <v>19.5</v>
@@ -1651,13 +1718,13 @@
         <v>94.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1666,10 +1733,10 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>12</v>
@@ -1684,16 +1751,16 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
         <v>21</v>
@@ -1702,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>12</v>
@@ -1714,13 +1781,13 @@
         <v>3</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1890,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -1940,88 +2007,88 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
         <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>0.333</v>
+        <v>0.316</v>
       </c>
       <c r="H9" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="J9" t="n">
-        <v>79.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="L9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M9" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O9" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R9" t="n">
         <v>12.4</v>
       </c>
       <c r="S9" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="T9" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="U9" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W9" t="n">
         <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z9" t="n">
         <v>19.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>89</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.6</v>
+        <v>-6.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
         <v>24</v>
@@ -2030,13 +2097,13 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -2054,19 +2121,19 @@
         <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR9" t="n">
         <v>8</v>
       </c>
-      <c r="AR9" t="n">
-        <v>7</v>
-      </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
@@ -2233,10 +2300,10 @@
         <v>5</v>
       </c>
       <c r="AO10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP10" t="n">
         <v>26</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>27</v>
       </c>
       <c r="AQ10" t="n">
         <v>12</v>
@@ -2248,7 +2315,7 @@
         <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU10" t="n">
         <v>6</v>
@@ -2260,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -2304,97 +2371,97 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="n">
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.538</v>
+        <v>0.553</v>
       </c>
       <c r="H11" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J11" t="n">
         <v>83.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M11" t="n">
         <v>20.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O11" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="P11" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R11" t="n">
         <v>11.5</v>
       </c>
       <c r="S11" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="T11" t="n">
-        <v>42.3</v>
+        <v>41.9</v>
       </c>
       <c r="U11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W11" t="n">
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2403,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,10 +2479,10 @@
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2427,31 +2494,31 @@
         <v>15</v>
       </c>
       <c r="AS11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AU11" t="n">
         <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -2486,61 +2553,61 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
         <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>0.622</v>
+        <v>0.639</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J12" t="n">
-        <v>80.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.428</v>
       </c>
       <c r="L12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M12" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O12" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="P12" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R12" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="U12" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="V12" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W12" t="n">
         <v>8.4</v>
@@ -2552,19 +2619,19 @@
         <v>6.1</v>
       </c>
       <c r="Z12" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AA12" t="n">
         <v>21.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>21.7</v>
       </c>
       <c r="AB12" t="n">
         <v>95.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,13 +2643,13 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
         <v>24</v>
@@ -2597,22 +2664,22 @@
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>28</v>
@@ -2624,7 +2691,7 @@
         <v>8</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
         <v>28</v>
@@ -2633,7 +2700,7 @@
         <v>25</v>
       </c>
       <c r="BA12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>2.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
         <v>10</v>
@@ -2776,13 +2843,13 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>16</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>28</v>
@@ -2794,10 +2861,10 @@
         <v>15</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2809,7 +2876,7 @@
         <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -2850,97 +2917,97 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
         <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.605</v>
+        <v>0.622</v>
       </c>
       <c r="H14" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I14" t="n">
         <v>35.9</v>
       </c>
       <c r="J14" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L14" t="n">
         <v>5.1</v>
       </c>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.298</v>
+        <v>0.303</v>
       </c>
       <c r="O14" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P14" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="R14" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T14" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W14" t="n">
         <v>5.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>3.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA14" t="n">
         <v>19.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG14" t="n">
         <v>7</v>
       </c>
-      <c r="AG14" t="n">
-        <v>8</v>
-      </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>16</v>
@@ -2949,7 +3016,7 @@
         <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,10 +3025,10 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2979,31 +3046,31 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
         <v>29</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3170,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>22</v>
@@ -3179,10 +3246,10 @@
         <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
         <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>0.763</v>
+        <v>0.757</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J16" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.487</v>
+        <v>0.484</v>
       </c>
       <c r="L16" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.405</v>
+        <v>0.399</v>
       </c>
       <c r="O16" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="P16" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R16" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T16" t="n">
         <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
         <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3328,7 +3395,7 @@
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
@@ -3337,16 +3404,16 @@
         <v>28</v>
       </c>
       <c r="AS16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT16" t="n">
         <v>14</v>
       </c>
       <c r="AU16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
         <v>6</v>
@@ -3355,10 +3422,10 @@
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3486,7 +3553,7 @@
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3531,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3668,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
@@ -3689,10 +3756,10 @@
         <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ18" t="n">
         <v>7</v>
@@ -3716,7 +3783,7 @@
         <v>19</v>
       </c>
       <c r="AX18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="n">
         <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.308</v>
+        <v>0.316</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="J19" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K19" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="L19" t="n">
         <v>8.6</v>
       </c>
       <c r="M19" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N19" t="n">
         <v>0.352</v>
       </c>
       <c r="O19" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P19" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R19" t="n">
         <v>11.9</v>
       </c>
       <c r="S19" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="T19" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="U19" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W19" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X19" t="n">
         <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.1</v>
+        <v>-6.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH19" t="n">
         <v>25</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>27</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3871,31 +3938,31 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
         <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT19" t="n">
         <v>29</v>
       </c>
       <c r="AU19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV19" t="n">
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
@@ -3904,7 +3971,7 @@
         <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
@@ -3913,7 +3980,7 @@
         <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4053,10 +4120,10 @@
         <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>20</v>
@@ -4068,7 +4135,7 @@
         <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>0.474</v>
+        <v>0.486</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J21" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L21" t="n">
         <v>6.9</v>
@@ -4154,28 +4221,28 @@
         <v>22.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.307</v>
+        <v>0.308</v>
       </c>
       <c r="O21" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P21" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.752</v>
+        <v>0.755</v>
       </c>
       <c r="R21" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42.2</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V21" t="n">
         <v>16.8</v>
@@ -4184,43 +4251,43 @@
         <v>9.5</v>
       </c>
       <c r="X21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z21" t="n">
         <v>21.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>20</v>
@@ -4247,7 +4314,7 @@
         <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4256,16 +4323,16 @@
         <v>23</v>
       </c>
       <c r="AV21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>5.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4450,7 +4517,7 @@
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -4488,58 +4555,58 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="n">
         <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.625</v>
+        <v>0.641</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="J23" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L23" t="n">
         <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O23" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P23" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.644</v>
+        <v>0.646</v>
       </c>
       <c r="R23" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S23" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V23" t="n">
         <v>15.2</v>
@@ -4551,34 +4618,34 @@
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
       </c>
       <c r="AF23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG23" t="n">
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,10 +4666,10 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,16 +4678,16 @@
         <v>17</v>
       </c>
       <c r="AS23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT23" t="n">
         <v>8</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>9</v>
       </c>
       <c r="AU23" t="n">
         <v>17</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4629,19 +4696,19 @@
         <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC23" t="n">
         <v>10</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>21</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>11</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>6.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
@@ -4790,13 +4857,13 @@
         <v>21</v>
       </c>
       <c r="AR24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS24" t="n">
         <v>3</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>7</v>
@@ -4808,13 +4875,13 @@
         <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY24" t="n">
         <v>8</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
         <v>20</v>
@@ -4951,7 +5018,7 @@
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>14</v>
@@ -4972,13 +5039,13 @@
         <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>5</v>
@@ -4993,13 +5060,13 @@
         <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF26" t="n">
         <v>16</v>
@@ -5124,7 +5191,7 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5133,7 +5200,7 @@
         <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>13</v>
@@ -5148,7 +5215,7 @@
         <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>4</v>
@@ -5157,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AT26" t="n">
         <v>24</v>
@@ -5175,13 +5242,13 @@
         <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>18</v>
@@ -5315,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="AK27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
         <v>17</v>
@@ -5333,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5342,13 +5409,13 @@
         <v>23</v>
       </c>
       <c r="AT27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5488,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>4</v>
@@ -5512,7 +5579,7 @@
         <v>22</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>24</v>
@@ -5533,7 +5600,7 @@
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-4.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
@@ -5700,25 +5767,25 @@
         <v>14</v>
       </c>
       <c r="AR29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
         <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>15</v>
       </c>
       <c r="AV29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>10</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5861,7 +5928,7 @@
         <v>9</v>
       </c>
       <c r="AK30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5879,10 +5946,10 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS30" t="n">
         <v>21</v>
@@ -5903,13 +5970,13 @@
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
         <v>14</v>
@@ -6058,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6085,13 +6152,13 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>27</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-6-2011-12</t>
+          <t>2012-03-06</t>
         </is>
       </c>
     </row>
